--- a/02_Solartech/pricing/ITEM_MASTER_CLEANUP_WORKBOOK.xlsx
+++ b/02_Solartech/pricing/ITEM_MASTER_CLEANUP_WORKBOOK.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orphan Composite SKUs" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Items Missing Brand" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Approved Brand Codes" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Composite Flags" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -872,8 +873,6 @@
           <t>Vartex</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
         <v>1</v>
       </c>
@@ -894,8 +893,6 @@
           <t>Sunglow</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
         <v>1</v>
       </c>
@@ -3271,7 +3268,6 @@
           <t>Filtration Systems</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3294,7 +3290,6 @@
           <t>Heating Spares</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3317,7 +3312,6 @@
           <t>Heating Spares</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3340,7 +3334,6 @@
           <t>Heating Spares</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3363,7 +3356,6 @@
           <t>Heating Spares</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3386,7 +3378,6 @@
           <t>Heating Spares</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3409,7 +3400,6 @@
           <t>Heating Spares</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3432,7 +3422,6 @@
           <t>Heating Spares</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3455,7 +3444,6 @@
           <t>Heating Spares</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3478,7 +3466,6 @@
           <t>Heating Spares</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3501,7 +3488,6 @@
           <t>Heating Spares</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3524,7 +3510,6 @@
           <t>Adhesives &amp; Tapes</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3547,7 +3532,6 @@
           <t>Heating Spares</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3570,7 +3554,6 @@
           <t>Heating Spares</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3593,7 +3576,6 @@
           <t>Valves</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3616,7 +3598,6 @@
           <t>Valves</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3639,7 +3620,6 @@
           <t>SS/Copper System</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3662,7 +3642,6 @@
           <t>Valves</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3685,7 +3664,6 @@
           <t>Valves</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3708,7 +3686,6 @@
           <t>SS/Copper System</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3731,7 +3708,6 @@
           <t>SS/Copper System</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3754,7 +3730,6 @@
           <t>SS/Copper System</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3777,7 +3752,6 @@
           <t>SS/Copper System</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3800,7 +3774,6 @@
           <t>PPR System</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3823,7 +3796,6 @@
           <t>Valves</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3846,7 +3818,6 @@
           <t>SS/Copper System</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3869,7 +3840,6 @@
           <t>SS/Copper System</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3892,7 +3862,6 @@
           <t>SS/Copper System</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3915,7 +3884,6 @@
           <t>SS/Copper System</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3938,7 +3906,6 @@
           <t>SS/Copper System</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3961,7 +3928,6 @@
           <t>SS/Copper System</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3984,7 +3950,6 @@
           <t>SS/Copper System</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4007,7 +3972,6 @@
           <t>SS/Copper System</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4030,7 +3994,6 @@
           <t>SS/Copper System</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4053,7 +4016,6 @@
           <t>SS/Copper System</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4076,7 +4038,6 @@
           <t>SS/Copper System</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4099,7 +4060,6 @@
           <t>SS/Copper System</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4122,7 +4082,6 @@
           <t>SS/Copper System</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4145,7 +4104,6 @@
           <t>SS/Copper System</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4168,7 +4126,6 @@
           <t>SS/Copper System</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4186,8 +4143,6 @@
           <t>10. Tools &amp; PPE</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4210,7 +4165,6 @@
           <t>Pumps &amp; Boosters</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4233,7 +4187,6 @@
           <t>Industrial Chemicals</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4256,7 +4209,6 @@
           <t>Industrial Chemicals</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4279,7 +4231,6 @@
           <t>Industrial Chemicals</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4302,7 +4253,6 @@
           <t>Industrial Chemicals</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4325,7 +4275,6 @@
           <t>Treatment Spares</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4348,7 +4297,6 @@
           <t>Heating Spares</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4371,7 +4319,6 @@
           <t>Heating Spares</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4394,7 +4341,6 @@
           <t>Heating Spares</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4417,7 +4363,6 @@
           <t>Heating Spares</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4440,7 +4385,6 @@
           <t>Treatment Spares</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4463,7 +4407,6 @@
           <t>Treatment Spares</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4486,7 +4429,6 @@
           <t>Treatment Spares</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4509,7 +4451,6 @@
           <t>Treatment Spares</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4532,7 +4473,6 @@
           <t>Treatment Spares</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4555,7 +4495,6 @@
           <t>Treatment Spares</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4578,7 +4517,6 @@
           <t>Treatment Spares</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4601,7 +4539,6 @@
           <t>Treatment Spares</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4624,7 +4561,6 @@
           <t>Treatment Spares</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4647,7 +4583,6 @@
           <t>Treatment Spares</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4670,7 +4605,6 @@
           <t>Treatment Spares</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4693,7 +4627,6 @@
           <t>Treatment Spares</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4716,7 +4649,6 @@
           <t>Treatment Spares</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4739,7 +4671,6 @@
           <t>Treatment Spares</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4762,7 +4693,6 @@
           <t>Treatment Spares</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4785,7 +4715,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4808,7 +4737,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4831,7 +4759,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4854,7 +4781,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4877,7 +4803,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4900,7 +4825,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4923,7 +4847,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4946,7 +4869,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4969,7 +4891,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4992,7 +4913,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5015,7 +4935,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5038,7 +4957,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5061,7 +4979,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5084,7 +5001,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5107,7 +5023,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5130,7 +5045,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5153,7 +5067,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5176,7 +5089,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5199,7 +5111,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5222,7 +5133,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5245,7 +5155,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5268,7 +5177,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5291,7 +5199,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5314,7 +5221,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5337,7 +5243,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5360,7 +5265,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5383,7 +5287,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5406,7 +5309,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5429,7 +5331,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5452,7 +5353,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5475,7 +5375,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5498,7 +5397,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5521,7 +5419,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5544,7 +5441,6 @@
           <t>DC Components</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6322,4 +6218,431 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Similar To</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Decision</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>D-Stump</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D-Stump</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>✅ TRUE DUPLICATE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>T-514 Stump</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CLEAN UP</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Delete D-Stump</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>D-IKPVKL406P-1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>D-PV Install Kit Klip-Lok 406 Portrait 1/R</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>⚠️ SIMILAR</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>IKPVKL406P-3, -6</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>FLAG</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>D-IKPVE-11</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>D-PV Electrical Install Kit, 1P String</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>⚠️ SIMILAR</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>IKPVEHI-31-100, -200</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FLAG</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>D-SOL-030</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>D-SUMMER 400SX Solar Hot Water System</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>⚠️ SIMILAR</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SOL-023</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FLAG</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>D-IKPVSL-3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>D-PV Install Kit Shingle Landscape 3/R</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>⚠️ SIMILAR</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>IKPVSL-1, -10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>FLAG</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>D-IKPVKL700P-7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>D-PV Install Kit Klip-Lok 700 Portrait 7/R</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>❓ NO MATCH</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FLAG</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>D-IKPVLBP-1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>D-PV Install Kit Concrete Low Portrait 1/R</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>❓ NO MATCH</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FLAG</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>D-IKPVLBP-2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>D-PV Install Kit Concrete Low Portrait 2/R</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>❓ NO MATCH</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>FLAG</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>D-IKPVLBP-6</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>D-PV Install Kit Concrete Low Portrait 6/R</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>❓ NO MATCH</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>FLAG</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>D-AP-3P-2K</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>D-APSYSTEMS 3P 2Acc Kit</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>❓ NO MATCH</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FLAG</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>D-AP-1P-1K</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>D-APSYSTEM 1P 1ACC KIT</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>❓ NO MATCH</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>FLAG</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>D-PVCBHI-3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>D-PV Combiner Box, 63A, 3P Hybrid</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>❓ NO MATCH</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>FLAG</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Testing Code 1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Testing Kit item</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>❌ TEST DATA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>DELETE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/02_Solartech/pricing/ITEM_MASTER_CLEANUP_WORKBOOK.xlsx
+++ b/02_Solartech/pricing/ITEM_MASTER_CLEANUP_WORKBOOK.xlsx
@@ -6285,9 +6285,9 @@
           <t>D-Stump</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>✅ TRUE DUPLICATE</t>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>🔴 DUPLICATE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6297,7 +6297,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CLEAN UP</t>
+          <t>DEACTIVATE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -6317,9 +6317,9 @@
           <t>D-PV Install Kit Klip-Lok 406 Portrait 1/R</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>⚠️ SIMILAR</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>🔴 DUPLICATE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -6329,10 +6329,9 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FLAG</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>DEACTIVATE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6345,9 +6344,9 @@
           <t>D-PV Electrical Install Kit, 1P String</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>⚠️ SIMILAR</t>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>🔴 DUPLICATE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -6357,10 +6356,9 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FLAG</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>DEACTIVATE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6373,9 +6371,9 @@
           <t>D-SUMMER 400SX Solar Hot Water System</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>⚠️ SIMILAR</t>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>🔴 DUPLICATE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -6385,10 +6383,9 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FLAG</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>DEACTIVATE</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6401,9 +6398,9 @@
           <t>D-PV Install Kit Shingle Landscape 3/R</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>⚠️ SIMILAR</t>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>🔴 DUPLICATE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -6413,10 +6410,9 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FLAG</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>DEACTIVATE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6431,7 +6427,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>❓ NO MATCH</t>
+          <t>🔴 DUPLICATE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -6441,10 +6437,9 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FLAG</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>DEACTIVATE</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6459,7 +6454,7 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>❓ NO MATCH</t>
+          <t>🔴 DUPLICATE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -6469,10 +6464,9 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FLAG</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>DEACTIVATE</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6487,7 +6481,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>❓ NO MATCH</t>
+          <t>🔴 DUPLICATE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -6497,10 +6491,9 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FLAG</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>DEACTIVATE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6515,7 +6508,7 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>❓ NO MATCH</t>
+          <t>🔴 DUPLICATE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -6525,10 +6518,9 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FLAG</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>DEACTIVATE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -6543,7 +6535,7 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>❓ NO MATCH</t>
+          <t>🔴 DUPLICATE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -6553,10 +6545,9 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FLAG</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>DEACTIVATE</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6571,7 +6562,7 @@
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>❓ NO MATCH</t>
+          <t>🔴 DUPLICATE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -6581,10 +6572,9 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FLAG</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>DEACTIVATE</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6599,7 +6589,7 @@
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>❓ NO MATCH</t>
+          <t>🔴 DUPLICATE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -6609,10 +6599,9 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FLAG</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>DEACTIVATE</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6640,7 +6629,6 @@
           <t>DELETE</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
